--- a/Code/Results/Cases/Case_3_135/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_135/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.44822718150554</v>
+        <v>18.09656102687515</v>
       </c>
       <c r="C2">
-        <v>13.12328004337999</v>
+        <v>10.45841578630965</v>
       </c>
       <c r="D2">
-        <v>3.253873426217605</v>
+        <v>5.044523315965096</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>26.35269200400341</v>
+        <v>28.23900646101855</v>
       </c>
       <c r="G2">
-        <v>38.03274158005146</v>
+        <v>36.21740050928798</v>
       </c>
       <c r="H2">
-        <v>11.26211201785498</v>
+        <v>15.63768947374823</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>8.108124462613036</v>
+        <v>10.70357779574878</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>11.43933077005649</v>
+        <v>17.71092062368574</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.74056235540152</v>
+        <v>17.55081334527085</v>
       </c>
       <c r="C3">
-        <v>12.49672354326478</v>
+        <v>10.20244018724204</v>
       </c>
       <c r="D3">
-        <v>3.307882564418203</v>
+        <v>5.057315094279921</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>25.14789349255076</v>
+        <v>28.07737362686862</v>
       </c>
       <c r="G3">
-        <v>36.05242240997323</v>
+        <v>35.86057660481368</v>
       </c>
       <c r="H3">
-        <v>11.01505809094012</v>
+        <v>15.65033159118782</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>7.811109735608317</v>
+        <v>10.6789024190537</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>11.70475744341331</v>
+        <v>17.78362784503239</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.63471844932812</v>
+        <v>17.21131276488243</v>
       </c>
       <c r="C4">
-        <v>12.09647079371262</v>
+        <v>10.04032588521472</v>
       </c>
       <c r="D4">
-        <v>3.341409195898464</v>
+        <v>5.065512849162102</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>24.41023504514594</v>
+        <v>27.98748956236277</v>
       </c>
       <c r="G4">
-        <v>34.83130277768059</v>
+        <v>35.65452867888359</v>
       </c>
       <c r="H4">
-        <v>10.87263418037157</v>
+        <v>15.66202622670902</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>7.629065893400462</v>
+        <v>10.66602619474273</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>11.87019907104943</v>
+        <v>17.83022434970528</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.16952960516062</v>
+        <v>17.07208475089453</v>
       </c>
       <c r="C5">
-        <v>11.9295413550241</v>
+        <v>9.973074127493952</v>
       </c>
       <c r="D5">
-        <v>3.355174539259179</v>
+        <v>5.068940258457347</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>24.11052347720676</v>
+        <v>27.95324336417967</v>
       </c>
       <c r="G5">
-        <v>34.33297195431412</v>
+        <v>35.57393481202429</v>
       </c>
       <c r="H5">
-        <v>10.81690370376851</v>
+        <v>15.66777808142574</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>7.555051533643217</v>
+        <v>10.66135422404347</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>11.93828964331682</v>
+        <v>17.84970593801406</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.09140298169001</v>
+        <v>17.04891997420786</v>
       </c>
       <c r="C6">
-        <v>11.90159487589049</v>
+        <v>9.961836882980602</v>
       </c>
       <c r="D6">
-        <v>3.35746680293076</v>
+        <v>5.069514627981034</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>24.06082197209675</v>
+        <v>27.94770144851478</v>
       </c>
       <c r="G6">
-        <v>34.25020075639311</v>
+        <v>35.56075847470863</v>
       </c>
       <c r="H6">
-        <v>10.80778836330649</v>
+        <v>15.66879265069781</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>7.542774523320425</v>
+        <v>10.66061327148215</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>11.94963803295462</v>
+        <v>17.85297067759875</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.62850382431921</v>
+        <v>17.20943833076921</v>
       </c>
       <c r="C7">
-        <v>12.09423487554951</v>
+        <v>10.03942364350024</v>
       </c>
       <c r="D7">
-        <v>3.341594408689488</v>
+        <v>5.065558720652985</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>24.40618890773966</v>
+        <v>27.98701802568064</v>
       </c>
       <c r="G7">
-        <v>34.82458414514657</v>
+        <v>35.65342799171523</v>
       </c>
       <c r="H7">
-        <v>10.87187326633895</v>
+        <v>15.66209980903304</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>7.628066898382291</v>
+        <v>10.66596085408477</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>11.87111457929559</v>
+        <v>17.83048508619882</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.87124066449527</v>
+        <v>17.90943576993095</v>
       </c>
       <c r="C8">
-        <v>12.91051417041022</v>
+        <v>10.37121305516952</v>
       </c>
       <c r="D8">
-        <v>3.272426975867167</v>
+        <v>5.048862839028669</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>25.93704514526868</v>
+        <v>28.18135163447363</v>
       </c>
       <c r="G8">
-        <v>37.35132621329072</v>
+        <v>36.0917185508642</v>
       </c>
       <c r="H8">
-        <v>11.17499238722806</v>
+        <v>15.64123088131725</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>8.005696619483615</v>
+        <v>10.69459974108618</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>11.53036935190844</v>
+        <v>17.73558560927927</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.82083449607129</v>
+        <v>19.23781043110991</v>
       </c>
       <c r="C9">
-        <v>14.38525417573078</v>
+        <v>10.98042433022799</v>
       </c>
       <c r="D9">
-        <v>3.139152504883907</v>
+        <v>5.018831343927556</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>28.94261341206845</v>
+        <v>28.63522102173927</v>
       </c>
       <c r="G9">
-        <v>42.24504314753979</v>
+        <v>37.05023065521826</v>
       </c>
       <c r="H9">
-        <v>11.84377047675605</v>
+        <v>15.63160635566445</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>8.745445361859334</v>
+        <v>10.7686432424215</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>10.87925351909279</v>
+        <v>17.56490881563089</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.45903167583648</v>
+        <v>20.17538767169534</v>
       </c>
       <c r="C10">
-        <v>15.3898686849843</v>
+        <v>11.40008626163633</v>
       </c>
       <c r="D10">
-        <v>3.04190243249236</v>
+        <v>4.998395125318728</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>31.14016916515605</v>
+        <v>29.01078224462694</v>
       </c>
       <c r="G10">
-        <v>45.78513272487253</v>
+        <v>37.80833839903385</v>
       </c>
       <c r="H10">
-        <v>12.38158465167994</v>
+        <v>15.64372220790186</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>9.284836270097317</v>
+        <v>10.83369172491665</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>10.40747700537469</v>
+        <v>17.44879509800196</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31.60435791914725</v>
+        <v>20.59150889117659</v>
       </c>
       <c r="C11">
-        <v>15.82970546263875</v>
+        <v>11.58444690228107</v>
       </c>
       <c r="D11">
-        <v>2.997627815994272</v>
+        <v>4.989446658366421</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>32.13625174604564</v>
+        <v>29.19021610685331</v>
       </c>
       <c r="G11">
-        <v>47.38224248283508</v>
+        <v>38.16343118507812</v>
       </c>
       <c r="H11">
-        <v>12.63663686877683</v>
+        <v>15.65341247299192</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>9.528827043451559</v>
+        <v>10.8655317140496</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>10.19334009504062</v>
+        <v>17.39796218425152</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>32.03039637672281</v>
+        <v>20.74743863256111</v>
       </c>
       <c r="C12">
-        <v>15.99380784105716</v>
+        <v>11.65328187392522</v>
       </c>
       <c r="D12">
-        <v>2.980841955340841</v>
+        <v>4.986107786337311</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>32.51290450949509</v>
+        <v>29.25934615799633</v>
       </c>
       <c r="G12">
-        <v>47.98515407049152</v>
+        <v>38.29923589749207</v>
       </c>
       <c r="H12">
-        <v>12.73474600243425</v>
+        <v>15.65768285910966</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>9.620997832770453</v>
+        <v>10.87790584637968</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>10.11223301439154</v>
+        <v>17.37899702572038</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.93897905217623</v>
+        <v>20.71393185929248</v>
       </c>
       <c r="C13">
-        <v>15.95857420822834</v>
+        <v>11.63850110097509</v>
       </c>
       <c r="D13">
-        <v>2.984458224480322</v>
+        <v>4.98682466619949</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>32.43180934283797</v>
+        <v>29.24440604876942</v>
       </c>
       <c r="G13">
-        <v>47.85538808841965</v>
+        <v>38.26993049790478</v>
       </c>
       <c r="H13">
-        <v>12.71354794825245</v>
+        <v>15.65673643604444</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>9.601157368482466</v>
+        <v>10.87522686291598</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>10.12970315614992</v>
+        <v>17.3830689003814</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31.63956085096345</v>
+        <v>20.60437113885803</v>
       </c>
       <c r="C14">
-        <v>15.84325531054351</v>
+        <v>11.59012980605331</v>
       </c>
       <c r="D14">
-        <v>2.996247321807889</v>
+        <v>4.989170972825767</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>32.1672499487014</v>
+        <v>29.19588009386323</v>
       </c>
       <c r="G14">
-        <v>47.43188144243739</v>
+        <v>38.17457785077521</v>
       </c>
       <c r="H14">
-        <v>12.64467755899232</v>
+        <v>15.65375175940624</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>9.536414552639922</v>
+        <v>10.86654342613747</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>10.18666825748522</v>
+        <v>17.39639622379755</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>31.45516598032222</v>
+        <v>20.5370433686092</v>
       </c>
       <c r="C15">
-        <v>15.77230024485629</v>
+        <v>11.56037253053252</v>
       </c>
       <c r="D15">
-        <v>3.003465424439658</v>
+        <v>4.990614618327275</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>32.0051295621697</v>
+        <v>29.16630890797081</v>
       </c>
       <c r="G15">
-        <v>47.17222962289092</v>
+        <v>38.11634200650278</v>
       </c>
       <c r="H15">
-        <v>12.60269234124485</v>
+        <v>15.65200180334922</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>9.496728156076443</v>
+        <v>10.86126565775034</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>10.22155594772943</v>
+        <v>17.40459655085308</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>30.38309658414815</v>
+        <v>20.14797074491847</v>
       </c>
       <c r="C16">
-        <v>15.3607797212391</v>
+        <v>11.3879028909346</v>
       </c>
       <c r="D16">
-        <v>3.044793906879474</v>
+        <v>4.998986904094313</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>31.07499670424986</v>
+        <v>28.99922420902887</v>
       </c>
       <c r="G16">
-        <v>45.68049044430762</v>
+        <v>37.78532681458391</v>
       </c>
       <c r="H16">
-        <v>12.36512806145418</v>
+        <v>15.6431730251634</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>9.268860673939388</v>
+        <v>10.83165562828297</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>10.42147374385935</v>
+        <v>17.45215700420837</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.71152343794549</v>
+        <v>19.90651323573619</v>
       </c>
       <c r="C17">
-        <v>15.10393326435883</v>
+        <v>11.280394325211</v>
       </c>
       <c r="D17">
-        <v>3.070128099235673</v>
+        <v>5.004211940381687</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>30.50342899997183</v>
+        <v>28.89888641230293</v>
       </c>
       <c r="G17">
-        <v>44.7619379097659</v>
+        <v>37.58478585256096</v>
       </c>
       <c r="H17">
-        <v>12.22207238544758</v>
+        <v>15.63882729766255</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>9.128695561130105</v>
+        <v>10.81406248236135</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>10.54418002515526</v>
+        <v>17.48184172629237</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.32008050072506</v>
+        <v>19.76666366080921</v>
       </c>
       <c r="C18">
-        <v>14.95458419299185</v>
+        <v>11.21794412823033</v>
       </c>
       <c r="D18">
-        <v>3.084697284226248</v>
+        <v>5.007250024852923</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>30.17433692310235</v>
+        <v>28.8419865707055</v>
       </c>
       <c r="G18">
-        <v>44.23235012353216</v>
+        <v>37.47041055810389</v>
       </c>
       <c r="H18">
-        <v>12.14076687722015</v>
+        <v>15.63672110454115</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>9.047946902275912</v>
+        <v>10.80415548065922</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>10.61480797529942</v>
+        <v>17.49910279428152</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.18665030732657</v>
+        <v>19.71915137595466</v>
       </c>
       <c r="C19">
-        <v>14.90373913727348</v>
+        <v>11.19669527823256</v>
       </c>
       <c r="D19">
-        <v>3.089630201333009</v>
+        <v>5.008284308607176</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>30.06285527391416</v>
+        <v>28.82286225173864</v>
       </c>
       <c r="G19">
-        <v>44.05282519133188</v>
+        <v>37.43185571763401</v>
       </c>
       <c r="H19">
-        <v>12.11340512315598</v>
+        <v>15.63607553360323</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>9.020585558482489</v>
+        <v>10.80083775750812</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>10.63873256278069</v>
+        <v>17.50497929857809</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.78354735408478</v>
+        <v>19.93231830532058</v>
       </c>
       <c r="C20">
-        <v>15.13144239016837</v>
+        <v>11.29190263382069</v>
       </c>
       <c r="D20">
-        <v>3.067431583813783</v>
+        <v>5.003652336029591</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>30.56430910276404</v>
+        <v>28.9094838969209</v>
       </c>
       <c r="G20">
-        <v>44.85985000309402</v>
+        <v>37.60603427785438</v>
       </c>
       <c r="H20">
-        <v>12.23719966555377</v>
+        <v>15.63924919546512</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>9.14362999314527</v>
+        <v>10.81591339502548</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>10.53111310028961</v>
+        <v>17.47866237465131</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.72771368788666</v>
+        <v>20.63659759863369</v>
       </c>
       <c r="C21">
-        <v>15.87719367830155</v>
+        <v>11.60436446051654</v>
       </c>
       <c r="D21">
-        <v>2.992785243150981</v>
+        <v>4.988480458992785</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>32.24497201242954</v>
+        <v>29.21010168879615</v>
       </c>
       <c r="G21">
-        <v>47.55632577293128</v>
+        <v>38.20254995993311</v>
       </c>
       <c r="H21">
-        <v>12.66486473515497</v>
+        <v>15.65461212595905</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>9.555437269130776</v>
+        <v>10.86908541150969</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>10.16993745239628</v>
+        <v>17.39247396710303</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.95373254994283</v>
+        <v>21.08722874956784</v>
       </c>
       <c r="C22">
-        <v>16.35029820083072</v>
+        <v>11.80285860143316</v>
       </c>
       <c r="D22">
-        <v>2.943875599762762</v>
+        <v>4.978854404527437</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>33.3402621474415</v>
+        <v>29.41343806702017</v>
       </c>
       <c r="G22">
-        <v>49.30777321227385</v>
+        <v>38.60014861315124</v>
       </c>
       <c r="H22">
-        <v>12.95328823009632</v>
+        <v>15.6681547619358</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>9.823275085506221</v>
+        <v>10.90568093725988</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>9.933735950111314</v>
+        <v>17.33780040448949</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>32.30339079036057</v>
+        <v>20.84764840009717</v>
       </c>
       <c r="C23">
-        <v>16.09909168303035</v>
+        <v>11.69745310984417</v>
       </c>
       <c r="D23">
-        <v>2.969995992638328</v>
+        <v>4.983965617601601</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>32.75596031731013</v>
+        <v>29.30430356273917</v>
       </c>
       <c r="G23">
-        <v>48.37394492574566</v>
+        <v>38.3872783830096</v>
       </c>
       <c r="H23">
-        <v>12.79852184233723</v>
+        <v>15.66060650559635</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>9.680448465061668</v>
+        <v>10.88598267464678</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>10.05984612030952</v>
+        <v>17.36682978438887</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.75100201059417</v>
+        <v>19.92065503740006</v>
       </c>
       <c r="C24">
-        <v>15.11901076249481</v>
+        <v>11.28670172466003</v>
       </c>
       <c r="D24">
-        <v>3.068650664163187</v>
+        <v>5.003905226769597</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>30.53678673233154</v>
+        <v>28.9046903227805</v>
       </c>
       <c r="G24">
-        <v>44.81558861793167</v>
+        <v>37.59642499415403</v>
       </c>
       <c r="H24">
-        <v>12.23035769931735</v>
+        <v>15.639057233716</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>9.13687865101778</v>
+        <v>10.81507595050589</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>10.53702039370109</v>
+        <v>17.48009915220515</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.79940434682829</v>
+        <v>18.88443148735831</v>
       </c>
       <c r="C25">
-        <v>14.00007048689833</v>
+        <v>10.82034181557001</v>
       </c>
       <c r="D25">
-        <v>3.175031593328293</v>
+        <v>5.026668092078125</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>28.13071335341689</v>
+        <v>28.50486411042888</v>
       </c>
       <c r="G25">
-        <v>40.93002344612987</v>
+        <v>36.78097190414491</v>
       </c>
       <c r="H25">
-        <v>11.65477247565241</v>
+        <v>15.63084625317993</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>8.545828606497338</v>
+        <v>10.74672209805279</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>11.05394220537013</v>
+        <v>17.60944278235863</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_135/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_135/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.09656102687515</v>
+        <v>24.44822718150556</v>
       </c>
       <c r="C2">
-        <v>10.45841578630965</v>
+        <v>13.1232800433799</v>
       </c>
       <c r="D2">
-        <v>5.044523315965096</v>
+        <v>3.253873426217536</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>28.23900646101855</v>
+        <v>26.35269200400338</v>
       </c>
       <c r="G2">
-        <v>36.21740050928798</v>
+        <v>38.03274158005141</v>
       </c>
       <c r="H2">
-        <v>15.63768947374823</v>
+        <v>11.26211201785497</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>10.70357779574878</v>
+        <v>8.108124462613054</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>17.71092062368574</v>
+        <v>11.43933077005649</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.55081334527085</v>
+        <v>22.74056235540152</v>
       </c>
       <c r="C3">
-        <v>10.20244018724204</v>
+        <v>12.49672354326468</v>
       </c>
       <c r="D3">
-        <v>5.057315094279921</v>
+        <v>3.307882564418269</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>28.07737362686862</v>
+        <v>25.14789349255071</v>
       </c>
       <c r="G3">
-        <v>35.86057660481368</v>
+        <v>36.05242240997306</v>
       </c>
       <c r="H3">
-        <v>15.65033159118782</v>
+        <v>11.01505809094008</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>10.6789024190537</v>
+        <v>7.811109735608284</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>17.78362784503239</v>
+        <v>11.70475744341324</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.21131276488243</v>
+        <v>21.63471844932807</v>
       </c>
       <c r="C4">
-        <v>10.04032588521472</v>
+        <v>12.09647079371261</v>
       </c>
       <c r="D4">
-        <v>5.065512849162102</v>
+        <v>3.341409195898404</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>27.98748956236277</v>
+        <v>24.41023504514592</v>
       </c>
       <c r="G4">
-        <v>35.65452867888359</v>
+        <v>34.83130277768061</v>
       </c>
       <c r="H4">
-        <v>15.66202622670902</v>
+        <v>10.87263418037155</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>10.66602619474273</v>
+        <v>7.629065893400437</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>17.83022434970528</v>
+        <v>11.87019907104943</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.07208475089453</v>
+        <v>21.16952960516063</v>
       </c>
       <c r="C5">
-        <v>9.973074127493952</v>
+        <v>11.9295413550242</v>
       </c>
       <c r="D5">
-        <v>5.068940258457347</v>
+        <v>3.35517453925924</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>27.95324336417967</v>
+        <v>24.11052347720672</v>
       </c>
       <c r="G5">
-        <v>35.57393481202429</v>
+        <v>34.33297195431403</v>
       </c>
       <c r="H5">
-        <v>15.66777808142574</v>
+        <v>10.81690370376852</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>10.66135422404347</v>
+        <v>7.555051533643192</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>17.84970593801406</v>
+        <v>11.93828964331682</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.04891997420786</v>
+        <v>21.09140298169006</v>
       </c>
       <c r="C6">
-        <v>9.961836882980602</v>
+        <v>11.90159487589066</v>
       </c>
       <c r="D6">
-        <v>5.069514627981034</v>
+        <v>3.35746680293076</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>27.94770144851478</v>
+        <v>24.0608219720966</v>
       </c>
       <c r="G6">
-        <v>35.56075847470863</v>
+        <v>34.2502007563929</v>
       </c>
       <c r="H6">
-        <v>15.66879265069781</v>
+        <v>10.80778836330644</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>10.66061327148215</v>
+        <v>7.542774523320428</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>17.85297067759875</v>
+        <v>11.94963803295452</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.20943833076921</v>
+        <v>21.62850382431915</v>
       </c>
       <c r="C7">
-        <v>10.03942364350024</v>
+        <v>12.09423487554981</v>
       </c>
       <c r="D7">
-        <v>5.065558720652985</v>
+        <v>3.341594408689688</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>27.98701802568064</v>
+        <v>24.40618890773976</v>
       </c>
       <c r="G7">
-        <v>35.65342799171523</v>
+        <v>34.82458414514672</v>
       </c>
       <c r="H7">
-        <v>15.66209980903304</v>
+        <v>10.87187326633907</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>10.66596085408477</v>
+        <v>7.628066898382274</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>17.83048508619882</v>
+        <v>11.87111457929579</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.90943576993095</v>
+        <v>23.8712406644952</v>
       </c>
       <c r="C8">
-        <v>10.37121305516952</v>
+        <v>12.91051417041049</v>
       </c>
       <c r="D8">
-        <v>5.048862839028669</v>
+        <v>3.272426975867299</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>28.18135163447363</v>
+        <v>25.93704514526871</v>
       </c>
       <c r="G8">
-        <v>36.0917185508642</v>
+        <v>37.35132621329078</v>
       </c>
       <c r="H8">
-        <v>15.64123088131725</v>
+        <v>11.17499238722808</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>10.69459974108618</v>
+        <v>8.005696619483682</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>17.73558560927927</v>
+        <v>11.5303693519085</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>19.23781043110991</v>
+        <v>27.8208344960714</v>
       </c>
       <c r="C9">
-        <v>10.98042433022799</v>
+        <v>14.38525417573078</v>
       </c>
       <c r="D9">
-        <v>5.018831343927556</v>
+        <v>3.139152504884034</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>28.63522102173927</v>
+        <v>28.94261341206841</v>
       </c>
       <c r="G9">
-        <v>37.05023065521826</v>
+        <v>42.24504314753973</v>
       </c>
       <c r="H9">
-        <v>15.63160635566445</v>
+        <v>11.84377047675605</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>10.7686432424215</v>
+        <v>8.745445361859321</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>17.56490881563089</v>
+        <v>10.87925351909272</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>20.17538767169534</v>
+        <v>30.45903167583652</v>
       </c>
       <c r="C10">
-        <v>11.40008626163633</v>
+        <v>15.3898686849843</v>
       </c>
       <c r="D10">
-        <v>4.998395125318728</v>
+        <v>3.041902432492287</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>29.01078224462694</v>
+        <v>31.14016916515603</v>
       </c>
       <c r="G10">
-        <v>37.80833839903385</v>
+        <v>45.78513272487253</v>
       </c>
       <c r="H10">
-        <v>15.64372220790186</v>
+        <v>12.38158465167991</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>10.83369172491665</v>
+        <v>9.284836270097314</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>17.44879509800196</v>
+        <v>10.40747700537466</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>20.59150889117659</v>
+        <v>31.60435791914734</v>
       </c>
       <c r="C11">
-        <v>11.58444690228107</v>
+        <v>15.82970546263865</v>
       </c>
       <c r="D11">
-        <v>4.989446658366421</v>
+        <v>2.997627815994339</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>29.19021610685331</v>
+        <v>32.13625174604569</v>
       </c>
       <c r="G11">
-        <v>38.16343118507812</v>
+        <v>47.38224248283522</v>
       </c>
       <c r="H11">
-        <v>15.65341247299192</v>
+        <v>12.63663686877685</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>10.8655317140496</v>
+        <v>9.528827043451578</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>17.39796218425152</v>
+        <v>10.19334009504062</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>20.74743863256111</v>
+        <v>32.03039637672281</v>
       </c>
       <c r="C12">
-        <v>11.65328187392522</v>
+        <v>15.99380784105731</v>
       </c>
       <c r="D12">
-        <v>4.986107786337311</v>
+        <v>2.980841955340712</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>29.25934615799633</v>
+        <v>32.51290450949513</v>
       </c>
       <c r="G12">
-        <v>38.29923589749207</v>
+        <v>47.98515407049162</v>
       </c>
       <c r="H12">
-        <v>15.65768285910966</v>
+        <v>12.73474600243428</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>10.87790584637968</v>
+        <v>9.620997832770424</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>17.37899702572038</v>
+        <v>10.1122330143915</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>20.71393185929248</v>
+        <v>31.93897905217619</v>
       </c>
       <c r="C13">
-        <v>11.63850110097509</v>
+        <v>15.95857420822838</v>
       </c>
       <c r="D13">
-        <v>4.98682466619949</v>
+        <v>2.984458224480391</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>29.24440604876942</v>
+        <v>32.43180934283797</v>
       </c>
       <c r="G13">
-        <v>38.26993049790478</v>
+        <v>47.85538808841962</v>
       </c>
       <c r="H13">
-        <v>15.65673643604444</v>
+        <v>12.71354794825249</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>10.87522686291598</v>
+        <v>9.601157368482442</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>17.3830689003814</v>
+        <v>10.12970315614996</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>20.60437113885803</v>
+        <v>31.6395608509635</v>
       </c>
       <c r="C14">
-        <v>11.59012980605331</v>
+        <v>15.84325531054351</v>
       </c>
       <c r="D14">
-        <v>4.989170972825767</v>
+        <v>2.996247321807954</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>29.19588009386323</v>
+        <v>32.16724994870144</v>
       </c>
       <c r="G14">
-        <v>38.17457785077521</v>
+        <v>47.43188144243748</v>
       </c>
       <c r="H14">
-        <v>15.65375175940624</v>
+        <v>12.64467755899232</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>10.86654342613747</v>
+        <v>9.536414552639959</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>17.39639622379755</v>
+        <v>10.18666825748512</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>20.5370433686092</v>
+        <v>31.45516598032222</v>
       </c>
       <c r="C15">
-        <v>11.56037253053252</v>
+        <v>15.77230024485626</v>
       </c>
       <c r="D15">
-        <v>4.990614618327275</v>
+        <v>3.003465424439792</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>29.16630890797081</v>
+        <v>32.00512956216974</v>
       </c>
       <c r="G15">
-        <v>38.11634200650278</v>
+        <v>47.17222962289099</v>
       </c>
       <c r="H15">
-        <v>15.65200180334922</v>
+        <v>12.60269234124487</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>10.86126565775034</v>
+        <v>9.496728156076427</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>17.40459655085308</v>
+        <v>10.22155594772943</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>20.14797074491847</v>
+        <v>30.38309658414819</v>
       </c>
       <c r="C16">
-        <v>11.3879028909346</v>
+        <v>15.36077972123911</v>
       </c>
       <c r="D16">
-        <v>4.998986904094313</v>
+        <v>3.044793906879531</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>28.99922420902887</v>
+        <v>31.07499670424988</v>
       </c>
       <c r="G16">
-        <v>37.78532681458391</v>
+        <v>45.68049044430774</v>
       </c>
       <c r="H16">
-        <v>15.6431730251634</v>
+        <v>12.36512806145418</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>10.83165562828297</v>
+        <v>9.268860673939376</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>17.45215700420837</v>
+        <v>10.42147374385928</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>19.90651323573619</v>
+        <v>29.71152343794564</v>
       </c>
       <c r="C17">
-        <v>11.280394325211</v>
+        <v>15.10393326435869</v>
       </c>
       <c r="D17">
-        <v>5.004211940381687</v>
+        <v>3.070128099235805</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>28.89888641230293</v>
+        <v>30.50342899997183</v>
       </c>
       <c r="G17">
-        <v>37.58478585256096</v>
+        <v>44.76193790976591</v>
       </c>
       <c r="H17">
-        <v>15.63882729766255</v>
+        <v>12.22207238544757</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>10.81406248236135</v>
+        <v>9.128695561130113</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>17.48184172629237</v>
+        <v>10.54418002515516</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>19.76666366080921</v>
+        <v>29.32008050072514</v>
       </c>
       <c r="C18">
-        <v>11.21794412823033</v>
+        <v>14.95458419299212</v>
       </c>
       <c r="D18">
-        <v>5.007250024852923</v>
+        <v>3.084697284226246</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>28.8419865707055</v>
+        <v>30.17433692310234</v>
       </c>
       <c r="G18">
-        <v>37.47041055810389</v>
+        <v>44.23235012353223</v>
       </c>
       <c r="H18">
-        <v>15.63672110454115</v>
+        <v>12.14076687722009</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>10.80415548065922</v>
+        <v>9.047946902275934</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>17.49910279428152</v>
+        <v>10.61480797529935</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>19.71915137595466</v>
+        <v>29.18665030732664</v>
       </c>
       <c r="C19">
-        <v>11.19669527823256</v>
+        <v>14.9037391372736</v>
       </c>
       <c r="D19">
-        <v>5.008284308607176</v>
+        <v>3.089630201332942</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>28.82286225173864</v>
+        <v>30.06285527391415</v>
       </c>
       <c r="G19">
-        <v>37.43185571763401</v>
+        <v>44.05282519133191</v>
       </c>
       <c r="H19">
-        <v>15.63607553360323</v>
+        <v>12.11340512315591</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>10.80083775750812</v>
+        <v>9.020585558482498</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>17.50497929857809</v>
+        <v>10.63873256278066</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>19.93231830532058</v>
+        <v>29.78354735408478</v>
       </c>
       <c r="C20">
-        <v>11.29190263382069</v>
+        <v>15.13144239016854</v>
       </c>
       <c r="D20">
-        <v>5.003652336029591</v>
+        <v>3.067431583813779</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>28.9094838969209</v>
+        <v>30.56430910276404</v>
       </c>
       <c r="G20">
-        <v>37.60603427785438</v>
+        <v>44.85985000309402</v>
       </c>
       <c r="H20">
-        <v>15.63924919546512</v>
+        <v>12.23719966555376</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>10.81591339502548</v>
+        <v>9.143629993145247</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>17.47866237465131</v>
+        <v>10.53111310028964</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>20.63659759863369</v>
+        <v>31.72771368788662</v>
       </c>
       <c r="C21">
-        <v>11.60436446051654</v>
+        <v>15.87719367830172</v>
       </c>
       <c r="D21">
-        <v>4.988480458992785</v>
+        <v>2.992785243150984</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>29.21010168879615</v>
+        <v>32.24497201242949</v>
       </c>
       <c r="G21">
-        <v>38.20254995993311</v>
+        <v>47.55632577293123</v>
       </c>
       <c r="H21">
-        <v>15.65461212595905</v>
+        <v>12.66486473515495</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>10.86908541150969</v>
+        <v>9.555437269130776</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>17.39247396710303</v>
+        <v>10.16993745239632</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>21.08722874956784</v>
+        <v>32.95373254994281</v>
       </c>
       <c r="C22">
-        <v>11.80285860143316</v>
+        <v>16.35029820083078</v>
       </c>
       <c r="D22">
-        <v>4.978854404527437</v>
+        <v>2.943875599762628</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>29.41343806702017</v>
+        <v>33.34026214744151</v>
       </c>
       <c r="G22">
-        <v>38.60014861315124</v>
+        <v>49.30777321227382</v>
       </c>
       <c r="H22">
-        <v>15.6681547619358</v>
+        <v>12.95328823009633</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>10.90568093725988</v>
+        <v>9.823275085506218</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>17.33780040448949</v>
+        <v>9.933735950111378</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>20.84764840009717</v>
+        <v>32.30339079036055</v>
       </c>
       <c r="C23">
-        <v>11.69745310984417</v>
+        <v>16.09909168303037</v>
       </c>
       <c r="D23">
-        <v>4.983965617601601</v>
+        <v>2.969995992638385</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>29.30430356273917</v>
+        <v>32.7559603173101</v>
       </c>
       <c r="G23">
-        <v>38.3872783830096</v>
+        <v>48.37394492574559</v>
       </c>
       <c r="H23">
-        <v>15.66060650559635</v>
+        <v>12.79852184233724</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>10.88598267464678</v>
+        <v>9.680448465061671</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>17.36682978438887</v>
+        <v>10.05984612030959</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>19.92065503740006</v>
+        <v>29.75100201059412</v>
       </c>
       <c r="C24">
-        <v>11.28670172466003</v>
+        <v>15.11901076249493</v>
       </c>
       <c r="D24">
-        <v>5.003905226769597</v>
+        <v>3.068650664163315</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>28.9046903227805</v>
+        <v>30.53678673233149</v>
       </c>
       <c r="G24">
-        <v>37.59642499415403</v>
+        <v>44.81558861793171</v>
       </c>
       <c r="H24">
-        <v>15.639057233716</v>
+        <v>12.23035769931732</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>10.81507595050589</v>
+        <v>9.136878651017764</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>17.48009915220515</v>
+        <v>10.53702039370103</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>18.88443148735831</v>
+        <v>26.79940434682834</v>
       </c>
       <c r="C25">
-        <v>10.82034181557001</v>
+        <v>14.00007048689846</v>
       </c>
       <c r="D25">
-        <v>5.026668092078125</v>
+        <v>3.175031593328295</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>28.50486411042888</v>
+        <v>28.13071335341683</v>
       </c>
       <c r="G25">
-        <v>36.78097190414491</v>
+        <v>40.93002344612981</v>
       </c>
       <c r="H25">
-        <v>15.63084625317993</v>
+        <v>11.65477247565238</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>10.74672209805279</v>
+        <v>8.545828606497317</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>17.60944278235863</v>
+        <v>11.05394220537006</v>
       </c>
       <c r="O25">
         <v>0</v>
